--- a/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,84</t>
+          <t>-5,62; 1,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,98</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,2</t>
+          <t>0,0; 4,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 0,0</t>
+          <t>-36,25; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-4,02; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,4</t>
+          <t>-3,37; 1,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 1,35</t>
+          <t>-6,06; 1,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,78</t>
+          <t>-0,49; 3,17</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,88</t>
+          <t>-5,65; 1,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,24</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 4,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,27 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 0,0</t>
+          <t>-36,25; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-4,02; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,42</t>
+          <t>-3,38; 1,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 1,37</t>
+          <t>-6,06; 1,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,86</t>
+          <t>-0,49; 3,28</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,62</t>
+          <t>0,24; 2,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,41</t>
+          <t>-2,53; 1,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,63</t>
+          <t>-1,85; 1,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,35</t>
+          <t>-3,4; -0,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,86</t>
+          <t>0,21; 1,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,05</t>
+          <t>-1,42; 0,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,75</t>
+          <t>-1,64; 0,71</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,69</t>
+          <t>0,24; 2,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,43</t>
+          <t>-2,53; 1,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,66</t>
+          <t>-1,85; 1,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,35</t>
+          <t>-3,4; -0,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,21; 1,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,07</t>
+          <t>-1,43; 0,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,76</t>
+          <t>-1,64; 0,72</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 0,0</t>
+          <t>-8,47; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 0,0</t>
+          <t>-6,29; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,0</t>
+          <t>-4,29; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,0</t>
+          <t>-4,8; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,0</t>
+          <t>-2,87; 0,0</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 0,0</t>
+          <t>-8,47; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 0,0</t>
+          <t>-6,29; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,0</t>
+          <t>-4,29; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,0</t>
+          <t>-4,8; 0,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,0</t>
+          <t>-2,87; 0,0</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,54</t>
+          <t>-0,29; 1,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,91</t>
+          <t>-1,75; 0,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,09</t>
+          <t>-1,35; 1,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,27 +1353,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,48; -0,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>-0,16; 1,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,56</t>
+          <t>-1,28; 0,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,48</t>
+          <t>-1,21; 0,51</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,55</t>
+          <t>-0,29; 1,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,92</t>
+          <t>-1,76; 0,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,1</t>
+          <t>-1,36; 1,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,48; -0,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,14</t>
+          <t>-0,16; 1,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>-1,29; 0,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,48</t>
+          <t>-1,21; 0,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,82</t>
+          <t>-5,21; 1,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,53</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 0,0</t>
+          <t>-25,18; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,39</t>
+          <t>-2,65; 1,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 1,37</t>
+          <t>-6,86; 1,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,17</t>
+          <t>-0,48; 2,86</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 1,86</t>
+          <t>-5,3; 1,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0,0; 5,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 5,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 0,0</t>
+          <t>-25,18; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,4</t>
+          <t>-2,67; 1,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 1,39</t>
+          <t>-6,92; 1,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,28</t>
+          <t>-0,48; 2,95</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,63</t>
+          <t>0,29; 2,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,25</t>
+          <t>-2,24; 1,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,66</t>
+          <t>-1,8; 1,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,21; 1,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,95</t>
+          <t>-1,38; 1,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,71</t>
+          <t>-1,62; 0,75</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,7</t>
+          <t>0,29; 2,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,27</t>
+          <t>-2,25; 1,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,69</t>
+          <t>-1,82; 1,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,91</t>
+          <t>0,21; 2,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,96</t>
+          <t>-1,39; 1,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,72</t>
+          <t>-1,63; 0,76</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 0,0</t>
+          <t>-6,66; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 0,0</t>
+          <t>-3,79; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 0,0</t>
+          <t>-6,66; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 0,0</t>
+          <t>-3,79; 0,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,46</t>
+          <t>-0,29; 1,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,88</t>
+          <t>-1,83; 0,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,12</t>
+          <t>-1,46; 1,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,17 +1363,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,11</t>
+          <t>-0,16; 1,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,6</t>
+          <t>-1,36; 0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,51</t>
+          <t>-1,37; 0,38</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,48</t>
+          <t>-0,29; 1,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,9</t>
+          <t>-1,84; 0,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,14</t>
+          <t>-1,48; 1,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,13</t>
+          <t>-0,16; 1,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,6</t>
+          <t>-1,36; 0,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,52</t>
+          <t>-1,37; 0,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,83</t>
+          <t>-4,69; 1,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 4,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,82</t>
+          <t>0,0; 4,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 0,0</t>
+          <t>-25,61; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,0</t>
+          <t>-4,19; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,4</t>
+          <t>-3,32; 1,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 1,35</t>
+          <t>-6,91; 1,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,86</t>
+          <t>-0,49; 2,78</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 1,86</t>
+          <t>-4,75; 1,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,01</t>
+          <t>0,0; 5,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,07</t>
+          <t>0,0; 4,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,27 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 0,0</t>
+          <t>-25,61; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,0</t>
+          <t>-4,19; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,42</t>
+          <t>-3,32; 1,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 1,37</t>
+          <t>-6,96; 1,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,95</t>
+          <t>-0,49; 2,86</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,6</t>
+          <t>0,29; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,32</t>
+          <t>-2,38; 1,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,67</t>
+          <t>-1,65; 1,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -0,37</t>
+          <t>-3,1; -0,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,97</t>
+          <t>0,21; 1,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,16</t>
+          <t>-1,38; 1,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,75</t>
+          <t>-1,68; 0,75</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,67</t>
+          <t>0,29; 2,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,35</t>
+          <t>-2,4; 1,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,7</t>
+          <t>-1,66; 1,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -0,37</t>
+          <t>-3,1; -0,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,0</t>
+          <t>0,21; 1,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,17</t>
+          <t>-1,38; 1,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,76</t>
+          <t>-1,69; 0,76</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 0,0</t>
+          <t>-9,6; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 0,0</t>
+          <t>-5,93; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 0,0</t>
+          <t>-4,38; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,0</t>
+          <t>-3,81; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,0</t>
+          <t>-3,32; 0,0</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 0,0</t>
+          <t>-9,6; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 0,0</t>
+          <t>-5,93; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 0,0</t>
+          <t>-4,38; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,0</t>
+          <t>-3,81; 0,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,0</t>
+          <t>-3,32; 0,0</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,64</t>
+          <t>-0,25; 1,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,87</t>
+          <t>-2,04; 0,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,17</t>
+          <t>-1,46; 1,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,27 +1353,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; -0,36</t>
+          <t>-2,47; -0,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,02</t>
+          <t>-0,15; 1,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,48</t>
+          <t>-1,33; 0,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,38</t>
+          <t>-1,22; 0,48</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,68</t>
+          <t>-0,25; 1,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,88</t>
+          <t>-2,06; 0,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,15</t>
+          <t>-1,47; 1,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,48; -0,36</t>
+          <t>-2,47; -0,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,03</t>
+          <t>-0,15; 1,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,48</t>
+          <t>-1,34; 0,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,39</t>
+          <t>-1,22; 0,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-4,82; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,78</t>
+          <t>-0,56; 2,76</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-4,82; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,86</t>
+          <t>-0,56; 2,84</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,28</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,63</t>
+          <t>-1,52; 1,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,35</t>
+          <t>-2,92; -0,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,75</t>
+          <t>-1,51; 0,83</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>-1,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-0,29%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,66</t>
+          <t>-1,53; 1,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,35</t>
+          <t>-2,92; -0,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,76</t>
+          <t>-1,52; 0,85</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,9</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 0,0</t>
+          <t>-5,7; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,0</t>
+          <t>-4,44; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,0</t>
+          <t>-3,27; 0,0</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,07%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 0,0</t>
+          <t>-5,7; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,0</t>
+          <t>-4,44; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,0</t>
+          <t>-3,27; 0,0</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,09</t>
+          <t>-1,31; 1,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,3; -0,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,48</t>
+          <t>-1,12; 0,53</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>-0,36%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,1</t>
+          <t>-1,32; 1,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,3; -0,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,48</t>
+          <t>-1,13; 0,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Estudios-trans_camb.xlsx
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,84</t>
+          <t>-5,57; 1,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,98</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,2</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 0,0</t>
+          <t>-29,77; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,0</t>
+          <t>-4,44; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,4</t>
+          <t>-2,64; 1,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 1,35</t>
+          <t>-6,31; 1,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,76</t>
+          <t>-0,61; 3,19</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,88</t>
+          <t>-5,58; 1,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,24</t>
+          <t>0,0; 5,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 4,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,27 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 0,0</t>
+          <t>-29,77; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,0</t>
+          <t>-4,44; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,42</t>
+          <t>-2,67; 1,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 1,37</t>
+          <t>-6,46; 1,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,84</t>
+          <t>-0,61; 3,29</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,62</t>
+          <t>0,29; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,41</t>
+          <t>-2,45; 1,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,65</t>
+          <t>-1,85; 1,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; -0,29</t>
+          <t>-3,02; -0,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,86</t>
+          <t>0,21; 1,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,05</t>
+          <t>-1,44; 1,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,83</t>
+          <t>-1,31; 0,97</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,69</t>
+          <t>0,29; 2,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,43</t>
+          <t>-2,47; 1,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,68</t>
+          <t>-1,86; 1,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; -0,29</t>
+          <t>-3,02; -0,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,21; 1,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,07</t>
+          <t>-1,45; 1,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,85</t>
+          <t>-1,32; 0,98</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 0,0</t>
+          <t>-8,35; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,0</t>
+          <t>-5,19; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 0,0</t>
+          <t>-4,15; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,0</t>
+          <t>-3,75; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,0</t>
+          <t>-3,36; 0,0</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 0,0</t>
+          <t>-8,35; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,0</t>
+          <t>-5,19; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 0,0</t>
+          <t>-4,15; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,0</t>
+          <t>-3,75; 0,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,0</t>
+          <t>-3,36; 0,0</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,54</t>
+          <t>-0,28; 1,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,91</t>
+          <t>-1,86; 0,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,13</t>
+          <t>-1,35; 1,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,27 +1353,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; -0,4</t>
+          <t>-2,34; -0,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>-0,15; 1,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,56</t>
+          <t>-1,37; 0,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,53</t>
+          <t>-1,18; 0,46</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,55</t>
+          <t>-0,28; 1,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,92</t>
+          <t>-1,88; 0,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,14</t>
+          <t>-1,35; 1,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,3; -0,4</t>
+          <t>-2,34; -0,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,14</t>
+          <t>-0,15; 1,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>-1,37; 0,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,54</t>
+          <t>-1,19; 0,46</t>
         </is>
       </c>
     </row>
